--- a/results/gurobi_cplex_comparison/seed_10_k_5.xlsx
+++ b/results/gurobi_cplex_comparison/seed_10_k_5.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="F2">
-        <v>0.052</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.014</v>
+        <v>0.214</v>
       </c>
       <c r="F3">
-        <v>0.118</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.016</v>
+        <v>0.29</v>
       </c>
       <c r="F4">
-        <v>0.123</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.017</v>
+        <v>0.37</v>
       </c>
       <c r="F5">
-        <v>0.227</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.005</v>
+        <v>0.451</v>
       </c>
       <c r="F6">
-        <v>0.037</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.012</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F7">
-        <v>0.043</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.022</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F8">
-        <v>0.107</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.007</v>
+        <v>0.797</v>
       </c>
       <c r="F9">
-        <v>0.036</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.037</v>
+        <v>0.961</v>
       </c>
       <c r="F10">
-        <v>0.577</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.035</v>
+        <v>1.115</v>
       </c>
       <c r="F11">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.024</v>
+        <v>1.263</v>
       </c>
       <c r="F12">
-        <v>0.452</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.008</v>
+        <v>1.432</v>
       </c>
       <c r="F13">
-        <v>0.043</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.057</v>
+        <v>1.661</v>
       </c>
       <c r="F14">
-        <v>1.198</v>
+        <v>1.616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.017</v>
+        <v>1.966</v>
       </c>
       <c r="F15">
-        <v>0.07099999999999999</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.036</v>
+        <v>2.064</v>
       </c>
       <c r="F16">
-        <v>0.98</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.053</v>
+        <v>2.378</v>
       </c>
       <c r="F17">
-        <v>63.552</v>
+        <v>12.365</v>
       </c>
     </row>
   </sheetData>
